--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2125.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2125.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.920101844842336</v>
+        <v>0.88572758436203</v>
       </c>
       <c r="B1">
-        <v>1.834888802827184</v>
+        <v>3.190121650695801</v>
       </c>
       <c r="C1">
-        <v>1.21074968566615</v>
+        <v>2.881486654281616</v>
       </c>
       <c r="D1">
-        <v>1.064110102606351</v>
+        <v>1.636927962303162</v>
       </c>
       <c r="E1">
-        <v>1.037672294709552</v>
+        <v>1.257978200912476</v>
       </c>
     </row>
   </sheetData>
